--- a/A4/analysis.xlsx
+++ b/A4/analysis.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 539\A4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6900FF3-7D06-4E4F-95C7-C534A708755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDE1BB-7FE0-4947-BDC7-CD42509AA5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8950C8B7-8A01-4E7E-AD84-2875CED137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
-    <sheet name="per cells" sheetId="19" r:id="rId2"/>
-    <sheet name="recirc combined" sheetId="18" r:id="rId3"/>
-    <sheet name="grid 5 recirc" sheetId="16" r:id="rId4"/>
-    <sheet name="grid 4 recirc" sheetId="15" r:id="rId5"/>
-    <sheet name="grid 3 recirc" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="grid 2 recirc" sheetId="13" state="hidden" r:id="rId7"/>
-    <sheet name="grid 5 drag" sheetId="11" state="hidden" r:id="rId8"/>
-    <sheet name="grid 4 drag" sheetId="10" state="hidden" r:id="rId9"/>
-    <sheet name="grid 3 drag" sheetId="9" state="hidden" r:id="rId10"/>
-    <sheet name="grid 1 drag" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="grid 2 drag" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="grid 1" sheetId="1" state="hidden" r:id="rId13"/>
-    <sheet name="grid 2" sheetId="2" state="hidden" r:id="rId14"/>
-    <sheet name="grid 3" sheetId="3" state="hidden" r:id="rId15"/>
-    <sheet name="grid 4" sheetId="4" state="hidden" r:id="rId16"/>
-    <sheet name="grid 5" sheetId="5" state="hidden" r:id="rId17"/>
+    <sheet name="richardson" sheetId="20" r:id="rId2"/>
+    <sheet name="per cells" sheetId="19" r:id="rId3"/>
+    <sheet name="recirc combined" sheetId="18" r:id="rId4"/>
+    <sheet name="grid 5 recirc" sheetId="16" r:id="rId5"/>
+    <sheet name="grid 4 recirc" sheetId="15" r:id="rId6"/>
+    <sheet name="grid 3 recirc" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="grid 2 recirc" sheetId="13" state="hidden" r:id="rId8"/>
+    <sheet name="grid 5 drag" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="grid 4 drag" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="grid 3 drag" sheetId="9" state="hidden" r:id="rId11"/>
+    <sheet name="grid 1 drag" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="grid 2 drag" sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="grid 1" sheetId="1" state="hidden" r:id="rId14"/>
+    <sheet name="grid 2" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="grid 3" sheetId="3" state="hidden" r:id="rId16"/>
+    <sheet name="grid 4" sheetId="4" state="hidden" r:id="rId17"/>
+    <sheet name="grid 5" sheetId="5" state="hidden" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'recirc combined'!$A$1:$C$1701</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'recirc combined'!$A$1:$C$1701</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>drag-force-on-square-rfile</t>
   </si>
@@ -97,9 +98,6 @@
   </si>
   <si>
     <t>actual-drag)</t>
-  </si>
-  <si>
-    <t>Drag Coefficient</t>
   </si>
   <si>
     <t>Velocity u [ m s^-1 ]</t>
@@ -164,11 +162,54 @@
   <si>
     <t>drag err</t>
   </si>
+  <si>
+    <t>order of method</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>richardson</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>C_exact</t>
+  </si>
+  <si>
+    <t>Drag Coeff hand calc</t>
+  </si>
+  <si>
+    <t>Drag Coefficient ansys</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>first order</t>
+  </si>
+  <si>
+    <t>second order</t>
+  </si>
+  <si>
+    <t>richardson drag coeff err exp</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>relative error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,10 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13681,21 +13723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE3AD2-4C46-48F2-A374-579211F0CB31}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -13703,16 +13746,28 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13722,15 +13777,30 @@
       <c r="C2" s="1">
         <v>4.1029847306351597E-5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2.5130781475140399E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <f>2*D2/(1*0.04^2*0.01)</f>
         <v>3.1413476843925494</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>ABS($E2-B$30)/B$30*100</f>
+        <v>27.980205048817925</v>
+      </c>
+      <c r="G2">
+        <f>ABS($E2-C$30)/C$30*100</f>
+        <v>25.170850307469983</v>
+      </c>
+      <c r="H2">
+        <f>ABS($E2-D$30)/D$30*100</f>
+        <v>24.290052479131486</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13740,15 +13810,31 @@
       <c r="C3" s="1">
         <v>3.5631547020912899E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2.1824322550309199E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <f t="shared" ref="E3:E6" si="0">2*D3/(1*0.04^2*0.01)</f>
         <v>2.7280403187886493</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>ABS(E3-$B$30)/$B$30*100</f>
+        <v>11.141839254105717</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">ABS($E3-C$30)/C$30*100</f>
+        <v>8.7021115403428766</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2">ABS($E3-D$30)/D$30*100</f>
+        <v>7.9372003525914447</v>
+      </c>
+      <c r="I3">
+        <f>ABS(E3-E2)/E2</f>
+        <v>0.13157007982827679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13758,15 +13844,31 @@
       <c r="C4" s="1">
         <v>3.3938076134660499E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2.07870716324796E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>2.5983839540599494</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>ABS(E4-$B$30)/$B$30*100</f>
+        <v>5.8595687730933443</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.535794707125127</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2.8072376756011956</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="3">ABS(E4-E3)/E3</f>
+        <v>4.7527290500703492E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13776,15 +13878,31 @@
       <c r="C5" s="1">
         <v>3.3475955029103598E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2.0504022455325999E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>2.5630028069157493</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>ABS(E5-$B$30)/$B$30*100</f>
+        <v>4.4181216869034161</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.1259895159020421</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.4073529518652246</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.3616596996343574E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13794,44 +13912,60 @@
       <c r="C6" s="1">
         <v>3.3127515176701602E-5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2.02906030457297E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>2.5363253807162121</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>ABS(E6-$B$30)/$B$30*100</f>
+        <v>3.3312689032543821</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.0629947579510211</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.35183823796630176</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.0408660547524019E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="str">
         <f>E1</f>
-        <v>Drag Coeff</v>
+        <v>Drag Coeff hand calc</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13848,7 +13982,7 @@
         <v>1.1500000000000002E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E14" si="1">E2</f>
+        <f t="shared" ref="E10:E14" si="4">E2</f>
         <v>3.1413476843925494</v>
       </c>
       <c r="F10">
@@ -13860,7 +13994,7 @@
         <v>23.854285742529221</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -13871,23 +14005,23 @@
         <v>2.92E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D14" si="2">ABS(B11-C11)</f>
+        <f t="shared" ref="D11:D14" si="5">ABS(B11-C11)</f>
         <v>1.8099999999999998E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7280403187886493</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="3">ABS($D$14-D11)/$D$14*100</f>
+        <f t="shared" ref="F11:F13" si="6">ABS($D$14-D11)/$D$14*100</f>
         <v>0.49972237645750323</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G14" si="4">ABS($E$14-E11)/$E$14*100</f>
+        <f t="shared" ref="G11:G13" si="7">ABS($E$14-E11)/$E$14*100</f>
         <v>7.5587674803104496</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -13898,23 +14032,23 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8600000000000002E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5983839540599494</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2759578012215447</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4467906923761142</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -13925,23 +14059,23 @@
         <v>2.87E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.83E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5630028069157493</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6102165463631235</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0518140299492671</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -13952,32 +14086,32 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8010000000000002E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5363253807162121</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2390</v>
       </c>
@@ -13988,7 +14122,7 @@
         <v>3.1413476843925494</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9390</v>
       </c>
@@ -13999,7 +14133,7 @@
         <v>2.7280403187886493</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>37870</v>
       </c>
@@ -14010,7 +14144,7 @@
         <v>2.5983839540599494</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>152044</v>
       </c>
@@ -14021,7 +14155,7 @@
         <v>2.5630028069157493</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>613378</v>
       </c>
@@ -14030,6 +14164,86 @@
       </c>
       <c r="C21">
         <v>2.5363253807162121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <f>LOG((D5-D4)/(D6-D5))/LOG(2)</f>
+        <v>0.40736134047089428</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B24</f>
+        <v>0.40736134047089428</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3">
+        <f>($E$6-$E$5)/(2^B28 - 1)</f>
+        <v>-8.1767909743036479E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <f>($E$6-$E$5)/(2^C28 - 1)</f>
+        <v>-2.667742619953728E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>($E$6-$E$5)/(2^D28 - 1)</f>
+        <v>-8.8924753998457593E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3">
+        <f>$E$6+B29</f>
+        <v>2.4545574709731754</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:D30" si="8">$E$6+C29</f>
+        <v>2.5096479545166748</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5274329053163664</v>
       </c>
     </row>
   </sheetData>
@@ -14039,6 +14253,450 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09759BD-CE0B-468D-B52D-9FEB15D3BC8E}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6.11534102014365E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3.23387176140665E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1.7406611500299501E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9.8730834523544098E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.0559271445842997E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.1152770890963099E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.1245601257757398E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.6167154418159E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.3553112201661902E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2189514396729998E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1464779819575599E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.1075923647345301E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.08573153349546E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0732563697454499E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.06571236218991E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.06086321056435E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.05772715733222E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.05567731661619E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.05429063425323E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.05330452085177E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.0525857715618E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.0520543861666301E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0516576317647202E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.0513589875212899E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.0511331212657199E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.0509612445337899E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.0508302220642E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.05073014366107E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.0506535777804199E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.05059493446375E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.0505499818558501E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.05051550580752E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.05048904588171E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.0504687523904499E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.0504531848274499E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.0504412257979099E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.05043203388497E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.0504249056781799E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.0504194530461E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.0504152822061801E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.0504120828463699E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.05040962601974E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.05040773885351E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.0504062891860199E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.0504051756135401E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.0504043203181499E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.0504036634480499E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.0504031589765999E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.0504027715541598E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.0504024740258699E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.0504022455325999E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF82505C-54DC-403E-8122-2DEF8A82301C}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -14482,7 +15140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39202CC-2BE4-41DC-8D2A-585710A8203B}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -14974,7 +15632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0B1DD-AD15-4D06-B496-6A1FF5FBB734}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -15434,7 +16092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF7476-8C76-403A-A5DE-9405960F3201}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -15926,7 +16584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CD7169-5DFA-4643-AC73-867FE4FBD0B0}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -16386,7 +17044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BAAAC-4662-4D63-B49C-E6A2D077F6EC}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -16830,7 +17488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011774B5-447A-4CD8-A038-B74EFB5A96BA}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -17274,7 +17932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96563A3C-A6B5-4813-86C0-FCFA4212BAFD}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -17727,6 +18385,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348D6D0-B887-4039-8F48-FA9228003A13}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>27.980205048817925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>11.141839254105717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.8595687730933443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C5">
+        <v>4.4181216869034161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C6">
+        <v>3.3312689032543821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>24.290052479131486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.9372003525914447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.8072376756011956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.4073529518652246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C11">
+        <v>0.35183823796630176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>25.170850307469983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>8.7021115403428766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.535794707125127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>2.1259895159020421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>1.0629947579510211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C1C32B-A9A2-459B-AAF1-1C9A34C835DA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -17738,13 +18587,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17807,7 +18656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE7F980-9E3F-4BE5-B3B2-D4D7F58E2153}">
   <dimension ref="A1:C1701"/>
   <sheetViews>
@@ -17819,13 +18668,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -36534,7 +37383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21005F9A-246E-47D8-85D8-091842F5B9AF}">
   <dimension ref="A1:B505"/>
   <sheetViews>
@@ -36546,25 +37395,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -40573,7 +41422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E000024-1526-4D91-BD03-448073C693BC}">
   <dimension ref="A1:B505"/>
   <sheetViews>
@@ -40585,25 +41434,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -44612,7 +45461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888FB7F2-9F48-42A9-9F92-4E4A4A038813}">
   <dimension ref="A1:B505"/>
   <sheetViews>
@@ -44624,25 +45473,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -48651,7 +49500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB55CF7B-120C-4260-8BBC-BA6EE082EFC4}">
   <dimension ref="A1:B105"/>
   <sheetViews>
@@ -48663,25 +49512,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -49490,7 +50339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EC8E6D-ED3B-4134-B2A5-25C4AA95ECBD}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -49940,448 +50789,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09759BD-CE0B-468D-B52D-9FEB15D3BC8E}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>6.11534102014365E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3.23387176140665E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1.7406611500299501E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.8730834523544098E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.0559271445842997E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.1152770890963099E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3.1245601257757398E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.6167154418159E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.3553112201661902E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.2189514396729998E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.1464779819575599E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.1075923647345301E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.08573153349546E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.0732563697454499E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.06571236218991E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.06086321056435E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.05772715733222E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.05567731661619E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.05429063425323E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.05330452085177E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.0525857715618E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.0520543861666301E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2.0516576317647202E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.0513589875212899E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2.0511331212657199E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.0509612445337899E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.0508302220642E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.05073014366107E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2.0506535777804199E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2.05059493446375E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2.0505499818558501E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2.05051550580752E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2.05048904588171E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2.0504687523904499E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2.0504531848274499E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2.0504412257979099E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2.05043203388497E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2.0504249056781799E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2.0504194530461E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2.0504152822061801E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2.0504120828463699E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2.05040962601974E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2.05040773885351E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2.0504062891860199E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2.0504051756135401E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2.0504043203181499E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2.0504036634480499E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2.0504031589765999E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2.0504027715541598E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2.0504024740258699E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2.0504022455325999E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/A4/analysis.xlsx
+++ b/A4/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 539\A4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C290AC-231E-4E64-868C-6F3ADDB7FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02160D5-1CE6-405A-8CCE-EC061C2DD340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8950C8B7-8A01-4E7E-AD84-2875CED137CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{8950C8B7-8A01-4E7E-AD84-2875CED137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>richardson</t>
-  </si>
-  <si>
     <t>epsilon</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>relative error</t>
+  </si>
+  <si>
+    <t>richardson stuff</t>
   </si>
 </sst>
 </file>
@@ -239,12 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13726,17 +13725,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE3AD2-4C46-48F2-A374-579211F0CB31}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -13747,25 +13749,25 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14176,7 +14178,7 @@
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <f>LOG((D5-D4)/(D6-D5))/LOG(2)</f>
         <v>2.2686243319922497</v>
       </c>
@@ -14184,18 +14186,18 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
       </c>
       <c r="F27">
         <f>ABS(1.6962-1.5657)/1.5657</f>
@@ -14206,47 +14208,47 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <f>B24</f>
         <v>2.2686243319922497</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="4">
+        <v>37</v>
+      </c>
+      <c r="B29">
         <f>($E$6-$E$5)/(2^B28 - 1)</f>
         <v>-1.9228254478824186E-3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <f>($E$6-$E$5)/(2^C28 - 1)</f>
         <v>-7.3425673175746553E-3</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <f>($E$6-$E$5)/(2^D28 - 1)</f>
         <v>-2.4475224391915518E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
         <f>$E$6+B29</f>
         <v>2.5537374141502922</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <f t="shared" ref="C30:D30" si="8">$E$6+C29</f>
         <v>2.5483176722806</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <f t="shared" si="8"/>
         <v>2.5532127171589831</v>
       </c>
@@ -18393,15 +18395,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348D6D0-B887-4039-8F48-FA9228003A13}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B29" sqref="B28:C29"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -18412,7 +18414,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>5.0000000000000001E-3</v>
@@ -18423,7 +18425,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2.5000000000000001E-3</v>
@@ -18434,7 +18436,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>1.25E-3</v>
@@ -18445,7 +18447,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>6.2500000000000001E-4</v>
@@ -18456,7 +18458,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>3.1250000000000001E-4</v>
@@ -18577,6 +18579,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
